--- a/data/factor_data/regression_stats/stats_ATVI.xlsx
+++ b/data/factor_data/regression_stats/stats_ATVI.xlsx
@@ -438,22 +438,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.005507758963275301</v>
+        <v>-0.005351849039085525</v>
       </c>
       <c r="C2">
-        <v>-6.371187736745934</v>
+        <v>-6.319220222084446</v>
       </c>
       <c r="D2">
-        <v>-0.006139075347607699</v>
+        <v>-0.005928719602809945</v>
       </c>
       <c r="E2">
-        <v>-8.061204880106281</v>
+        <v>-7.933066414985074</v>
       </c>
       <c r="F2">
-        <v>-0.00612892422059423</v>
+        <v>-0.005877913440430703</v>
       </c>
       <c r="G2">
-        <v>-8.079899831870764</v>
+        <v>-7.918816435034724</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -461,22 +461,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.792286155065257</v>
+        <v>0.7938595859322555</v>
       </c>
       <c r="C3">
-        <v>8.388365142856388</v>
+        <v>8.500763373557319</v>
       </c>
       <c r="D3">
-        <v>0.9008499266606422</v>
+        <v>0.8953956972334214</v>
       </c>
       <c r="E3">
-        <v>10.31941625799361</v>
+        <v>10.42928132384185</v>
       </c>
       <c r="F3">
-        <v>0.8682579747912731</v>
+        <v>0.8649754951302129</v>
       </c>
       <c r="G3">
-        <v>9.266570537215237</v>
+        <v>9.293810090180497</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,16 +484,16 @@
         <v>8</v>
       </c>
       <c r="D4">
-        <v>0.09862562431435692</v>
+        <v>0.1132677217062186</v>
       </c>
       <c r="E4">
-        <v>0.5894635027464739</v>
+        <v>0.7070497015385301</v>
       </c>
       <c r="F4">
-        <v>0.07153874515040076</v>
+        <v>0.0951532847222976</v>
       </c>
       <c r="G4">
-        <v>0.4273381848142559</v>
+        <v>0.5837012211534224</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -501,16 +501,16 @@
         <v>9</v>
       </c>
       <c r="D5">
-        <v>-0.9113311050215543</v>
+        <v>-0.9114952478138567</v>
       </c>
       <c r="E5">
-        <v>-8.267448582246274</v>
+        <v>-8.365504867003404</v>
       </c>
       <c r="F5">
-        <v>-0.8503006569363003</v>
+        <v>-0.8490938197018889</v>
       </c>
       <c r="G5">
-        <v>-7.077559820293295</v>
+        <v>-7.430120376474478</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -518,10 +518,10 @@
         <v>10</v>
       </c>
       <c r="F6">
-        <v>0.2236328438483238</v>
+        <v>0.1512087238822653</v>
       </c>
       <c r="G6">
-        <v>0.9794407517019598</v>
+        <v>0.7016740245651933</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -529,10 +529,10 @@
         <v>11</v>
       </c>
       <c r="F7">
-        <v>-0.4326231622719789</v>
+        <v>-0.381511630172845</v>
       </c>
       <c r="G7">
-        <v>-1.704852079825537</v>
+        <v>-1.706474304669445</v>
       </c>
     </row>
   </sheetData>
